--- a/public/template-excel/template-simpanan.xlsx
+++ b/public/template-excel/template-simpanan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DBL\Project\webserver\project\simpin\public\template-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hakim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0DE050-4022-4B77-8015-4D19429D11C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1FD3867-230A-4FF9-BE44-71763E30A49A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>jenis_simpan</t>
   </si>
@@ -31,12 +31,6 @@
     <t>kode_anggota</t>
   </si>
   <si>
-    <t>u_entry</t>
-  </si>
-  <si>
-    <t>tgl_mulai</t>
-  </si>
-  <si>
     <t>tgl_entri</t>
   </si>
   <si>
@@ -55,13 +49,19 @@
     <t>SUKARELA</t>
   </si>
   <si>
-    <t>100.00.000</t>
-  </si>
-  <si>
     <t>SIMPANAN POKOK</t>
   </si>
   <si>
-    <t>101.01.000</t>
+    <t>coa bank/cash</t>
+  </si>
+  <si>
+    <t>411.01.000</t>
+  </si>
+  <si>
+    <t>periode</t>
+  </si>
+  <si>
+    <t>101.01.102</t>
   </si>
 </sst>
 </file>
@@ -69,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -548,9 +548,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -909,13 +910,18 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -931,39 +937,45 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>47358500000</v>
+        <v>2000000</v>
       </c>
       <c r="C2">
         <v>2588</v>
       </c>
-      <c r="F2" s="1">
+      <c r="D2" s="1">
         <v>44123</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
+      <c r="E2" s="1">
+        <v>44123</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>50000</v>
@@ -971,27 +983,39 @@
       <c r="C3">
         <v>2009</v>
       </c>
-      <c r="F3" s="1">
+      <c r="D3" s="1">
+        <v>44123</v>
+      </c>
+      <c r="E3" s="1">
         <v>44122</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>2045040000</v>
+        <v>10000</v>
       </c>
       <c r="C4">
         <v>2588</v>
       </c>
-      <c r="F4" s="1">
+      <c r="D4" s="1">
+        <v>44123</v>
+      </c>
+      <c r="E4" s="1">
         <v>44122</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
